--- a/Resultados/Resumo_Geral_TSP_16ha.xlsx
+++ b/Resultados/Resumo_Geral_TSP_16ha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/enrico_abreu_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{E369767C-D20A-4189-9ADB-2BAD917DC1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73FDFF76-E8F5-4423-830E-CA5F88D9E58F}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{E369767C-D20A-4189-9ADB-2BAD917DC1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE2D78EB-45AA-44C5-98DF-5A80A166273A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55F194F0-AE30-48C9-968B-733B93BF8DD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55F194F0-AE30-48C9-968B-733B93BF8DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Gráfico de Séries</a:t>
+              <a:t>TSP 16 ha</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -301,7 +301,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9603615538358558E-2"/>
+          <c:y val="8.718788274759455E-2"/>
+          <c:w val="0.76148682336417828"/>
+          <c:h val="0.81713276546222768"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -322,10 +332,28 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>field_16ha_100ha_2%_0m_0_TSP\</c:v>
+            <c:v>16ha_2%_0m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -530,10 +558,28 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>field_16ha_100ha_2%_6m_0_TSP\</c:v>
+            <c:v>16ha_2%_6m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -738,10 +784,28 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>ield_16ha_100ha_2%_12m_0_TSP\</c:v>
+            <c:v>16ha_2%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1154,10 +1218,28 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>field_16ha_100ha_6%_6m_0_TSP\</c:v>
+            <c:v>16ha_6%_6m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1362,10 +1444,28 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>ield_16ha_100ha_6%_12m_0_TSP\</c:v>
+            <c:v>16ha_6%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1604,10 +1704,28 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>ield_16ha_100ha_10%_6m_0_TSP\</c:v>
+            <c:v>16ha_10%_6m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1812,10 +1930,28 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>eld_16ha_100ha_10%_12m_0_TSP\</c:v>
+            <c:v>16ha_10%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2054,10 +2190,28 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v>ield_16ha_100ha_14%_6m_0_TSP\</c:v>
+            <c:v>16ha_14%_6m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2262,10 +2416,28 @@
           <c:idx val="12"/>
           <c:order val="12"/>
           <c:tx>
-            <c:v>eld_16ha_100ha_14%_12m_0_TSP\</c:v>
+            <c:v>16ha_14%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2504,10 +2676,28 @@
           <c:idx val="14"/>
           <c:order val="14"/>
           <c:tx>
-            <c:v>ield_16ha_100ha_18%_6m_0_TSP\</c:v>
+            <c:v>16ha_18%_6m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2712,10 +2902,28 @@
           <c:idx val="15"/>
           <c:order val="15"/>
           <c:tx>
-            <c:v>eld_16ha_100ha_18%_12m_0_TSP\</c:v>
+            <c:v>16ha_18%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2935,6 +3143,28 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Volume de Tanque de Pulverização [L]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2953,6 +3183,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Capacidade</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> Operacional Máxima [ha/h]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2967,6 +3220,32 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="10"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="13"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80878749709760545"/>
+          <c:y val="7.6962351914517113E-2"/>
+          <c:w val="0.18401437509576249"/>
+          <c:h val="0.82736221249771147"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2992,16 +3271,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>501014</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>107414</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>31664</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3350,10 +3629,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -3369,9 +3648,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3403,7 +3682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3438,7 +3717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3464,7 +3743,7 @@
         <v>1.414992</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3490,7 +3769,7 @@
         <v>1.4690080000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3516,7 +3795,7 @@
         <v>1.5012160000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3542,7 +3821,7 @@
         <v>1.5132480000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3568,7 +3847,7 @@
         <v>1.527728</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3594,7 +3873,7 @@
         <v>1.5319200000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3620,7 +3899,7 @@
         <v>1.533056</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3646,7 +3925,7 @@
         <v>1.5358400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3672,7 +3951,7 @@
         <v>1.5361600000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3698,7 +3977,7 @@
         <v>1.532896</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3724,7 +4003,7 @@
         <v>1.535264</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3750,7 +4029,7 @@
         <v>1.529968</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3776,7 +4055,7 @@
         <v>1.5274399999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3802,7 +4081,7 @@
         <v>1.5192639999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3828,7 +4107,7 @@
         <v>1.515984</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3854,7 +4133,7 @@
         <v>1.5131999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3880,7 +4159,7 @@
         <v>1.505328</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3906,7 +4185,7 @@
         <v>1.5026240000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3932,7 +4211,7 @@
         <v>1.4938560000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3958,7 +4237,7 @@
         <v>1.4929599999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3984,7 +4263,7 @@
         <v>1.4851840000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4010,7 +4289,7 @@
         <v>1.4769600000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4036,7 +4315,7 @@
         <v>1.4786240000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4062,7 +4341,7 @@
         <v>1.4676959999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4088,7 +4367,7 @@
         <v>1.4596</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4114,7 +4393,7 @@
         <v>1.4598880000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4140,7 +4419,7 @@
         <v>1.4523519999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -4178,9 +4457,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>47</v>
       </c>
@@ -4199,9 +4478,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4268,7 +4547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4294,7 +4573,7 @@
         <v>0.84840000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4320,7 +4599,7 @@
         <v>0.87678400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4346,7 +4625,7 @@
         <v>0.89335999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4372,7 +4651,7 @@
         <v>0.90304000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4398,7 +4677,7 @@
         <v>0.90988800000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4424,7 +4703,7 @@
         <v>0.91497600000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4450,7 +4729,7 @@
         <v>0.91811200000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4476,7 +4755,7 @@
         <v>0.91952</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4502,7 +4781,7 @@
         <v>0.91871999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4528,7 +4807,7 @@
         <v>0.91959999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4554,7 +4833,7 @@
         <v>0.92054400000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4580,7 +4859,7 @@
         <v>0.92001599999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4606,7 +4885,7 @@
         <v>0.91937600000000008</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4632,7 +4911,7 @@
         <v>0.91844800000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4658,7 +4937,7 @@
         <v>0.91643199999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4684,7 +4963,7 @@
         <v>0.91559999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4710,7 +4989,7 @@
         <v>0.91409600000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4736,7 +5015,7 @@
         <v>0.91299200000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4762,7 +5041,7 @@
         <v>0.90956800000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4788,7 +5067,7 @@
         <v>0.90929599999999988</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4814,7 +5093,7 @@
         <v>0.90587200000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4840,7 +5119,7 @@
         <v>0.90508799999999989</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4866,7 +5145,7 @@
         <v>0.90171199999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4892,7 +5171,7 @@
         <v>0.90191999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4918,7 +5197,7 @@
         <v>0.89889600000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4944,7 +5223,7 @@
         <v>0.89809600000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4970,7 +5249,7 @@
         <v>0.89537599999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -5010,9 +5289,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5044,7 +5323,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5079,7 +5358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5105,7 +5384,7 @@
         <v>1.278416</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5131,7 +5410,7 @@
         <v>1.3480320000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5157,7 +5436,7 @@
         <v>1.3826240000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5183,7 +5462,7 @@
         <v>1.4052480000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5209,7 +5488,7 @@
         <v>1.4245760000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5235,7 +5514,7 @@
         <v>1.4354720000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5261,7 +5540,7 @@
         <v>1.437344</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5287,7 +5566,7 @@
         <v>1.4414400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5313,7 +5592,7 @@
         <v>1.446224</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5339,7 +5618,7 @@
         <v>1.44712</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5365,7 +5644,7 @@
         <v>1.446288</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5391,7 +5670,7 @@
         <v>1.4441440000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5417,7 +5696,7 @@
         <v>1.44224</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5443,7 +5722,7 @@
         <v>1.4367679999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5469,7 +5748,7 @@
         <v>1.4341280000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5495,7 +5774,7 @@
         <v>1.430736</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -5521,7 +5800,7 @@
         <v>1.426736</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5547,7 +5826,7 @@
         <v>1.4248959999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -5573,7 +5852,7 @@
         <v>1.4254560000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5599,7 +5878,7 @@
         <v>1.41544</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5625,7 +5904,7 @@
         <v>1.4150880000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -5651,7 +5930,7 @@
         <v>1.4071360000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -5677,7 +5956,7 @@
         <v>1.408032</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -5703,7 +5982,7 @@
         <v>1.3971039999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5729,7 +6008,7 @@
         <v>1.389696</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -5755,7 +6034,7 @@
         <v>1.3908320000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -5781,7 +6060,7 @@
         <v>1.3828479999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -5819,9 +6098,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>50</v>
       </c>
@@ -5840,9 +6119,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5874,7 +6153,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5909,7 +6188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5935,7 +6214,7 @@
         <v>0.77724800000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5961,7 +6240,7 @@
         <v>0.80775999999999992</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5987,7 +6266,7 @@
         <v>0.82561600000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -6013,7 +6292,7 @@
         <v>0.83745599999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6039,7 +6318,7 @@
         <v>0.84470400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6065,7 +6344,7 @@
         <v>0.84920000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6091,7 +6370,7 @@
         <v>0.85388799999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -6117,7 +6396,7 @@
         <v>0.8556959999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -6143,7 +6422,7 @@
         <v>0.8575839999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -6169,7 +6448,7 @@
         <v>0.85878399999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -6195,7 +6474,7 @@
         <v>0.86019199999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -6221,7 +6500,7 @@
         <v>0.85974400000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -6247,7 +6526,7 @@
         <v>0.85827200000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -6273,7 +6552,7 @@
         <v>0.85903999999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -6299,7 +6578,7 @@
         <v>0.857568</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6325,7 +6604,7 @@
         <v>0.85588800000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -6351,7 +6630,7 @@
         <v>0.85540800000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6377,7 +6656,7 @@
         <v>0.85387200000000008</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -6403,7 +6682,7 @@
         <v>0.85367999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -6429,7 +6708,7 @@
         <v>0.85241600000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -6455,7 +6734,7 @@
         <v>0.84958400000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6481,7 +6760,7 @@
         <v>0.84926400000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6507,7 +6786,7 @@
         <v>0.84771199999999991</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -6533,7 +6812,7 @@
         <v>0.84542399999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -6559,7 +6838,7 @@
         <v>0.84519999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6585,7 +6864,7 @@
         <v>0.84263999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -6611,7 +6890,7 @@
         <v>0.84207999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -6651,9 +6930,9 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6685,7 +6964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6720,7 +6999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6746,7 +7025,7 @@
         <v>1.1939040000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6772,7 +7051,7 @@
         <v>1.26688</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6798,7 +7077,7 @@
         <v>1.3078399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -6824,7 +7103,7 @@
         <v>1.3354079999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6850,7 +7129,7 @@
         <v>1.3573759999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6876,7 +7155,7 @@
         <v>1.3671039999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6902,7 +7181,7 @@
         <v>1.3784160000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -6928,7 +7207,7 @@
         <v>1.386784</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -6954,7 +7233,7 @@
         <v>1.3879519999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -6980,7 +7259,7 @@
         <v>1.3893279999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -7006,7 +7285,7 @@
         <v>1.388992</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -7032,7 +7311,7 @@
         <v>1.391232</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -7058,7 +7337,7 @@
         <v>1.3908959999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -7084,7 +7363,7 @@
         <v>1.3886879999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -7110,7 +7389,7 @@
         <v>1.3888480000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -7136,7 +7415,7 @@
         <v>1.386816</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -7162,7 +7441,7 @@
         <v>1.387616</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -7188,7 +7467,7 @@
         <v>1.381664</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -7214,7 +7493,7 @@
         <v>1.373424</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -7240,7 +7519,7 @@
         <v>1.3700319999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -7266,7 +7545,7 @@
         <v>1.3717280000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -7292,7 +7571,7 @@
         <v>1.3615360000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -7318,7 +7597,7 @@
         <v>1.359264</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -7344,7 +7623,7 @@
         <v>1.3514080000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -7370,7 +7649,7 @@
         <v>1.3512799999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -7396,7 +7675,7 @@
         <v>1.344544</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -7422,7 +7701,7 @@
         <v>1.3441919999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -7462,9 +7741,9 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7499,7 +7778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -7537,7 +7816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7572,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -7607,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -7642,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -7677,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -7712,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -7747,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -7782,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -7817,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -7852,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -7887,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -7922,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -7957,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -7992,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -8027,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -8062,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -8097,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -8132,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -8167,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -8202,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -8237,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -8272,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -8307,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8342,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -8377,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -8412,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8447,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -8482,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -8531,9 +8810,9 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8565,7 +8844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -8600,7 +8879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -8626,7 +8905,7 @@
         <v>1.80576</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -8652,7 +8931,7 @@
         <v>1.8166880000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -8678,7 +8957,7 @@
         <v>1.8175520000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -8704,7 +8983,7 @@
         <v>1.8173280000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -8730,7 +9009,7 @@
         <v>1.8121119999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -8756,7 +9035,7 @@
         <v>1.8033760000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -8782,7 +9061,7 @@
         <v>1.7989279999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -8808,7 +9087,7 @@
         <v>1.786816</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -8834,7 +9113,7 @@
         <v>1.783056</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -8860,7 +9139,7 @@
         <v>1.7718240000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -8886,7 +9165,7 @@
         <v>1.761744</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -8912,7 +9191,7 @@
         <v>1.7589920000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -8938,7 +9217,7 @@
         <v>1.750176</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -8964,7 +9243,7 @@
         <v>1.740016</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -8990,7 +9269,7 @@
         <v>1.7295679999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -9016,7 +9295,7 @@
         <v>1.720064</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -9042,7 +9321,7 @@
         <v>1.711184</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -9068,7 +9347,7 @@
         <v>1.7008160000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -9094,7 +9373,7 @@
         <v>1.7007679999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -9120,7 +9399,7 @@
         <v>1.6918719999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -9146,7 +9425,7 @@
         <v>1.682544</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -9172,7 +9451,7 @@
         <v>1.67344</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -9198,7 +9477,7 @@
         <v>1.6642080000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -9224,7 +9503,7 @@
         <v>1.6550240000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -9250,7 +9529,7 @@
         <v>1.6459520000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -9276,7 +9555,7 @@
         <v>1.636736</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -9302,7 +9581,7 @@
         <v>1.6163839999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -9342,9 +9621,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9376,7 +9655,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -9411,7 +9690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -9437,7 +9716,7 @@
         <v>2.2182879999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -9463,7 +9742,7 @@
         <v>2.2349760000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -9489,7 +9768,7 @@
         <v>2.2364639999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -9515,7 +9794,7 @@
         <v>2.234896</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -9541,7 +9820,7 @@
         <v>2.229536</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -9567,7 +9846,7 @@
         <v>2.2129120000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -9593,7 +9872,7 @@
         <v>2.206896</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -9619,7 +9898,7 @@
         <v>2.1901120000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -9645,7 +9924,7 @@
         <v>2.18472</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -9671,7 +9950,7 @@
         <v>2.1686719999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -9697,7 +9976,7 @@
         <v>2.1524640000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -9723,7 +10002,7 @@
         <v>2.1497280000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -9749,7 +10028,7 @@
         <v>2.1346720000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -9775,7 +10054,7 @@
         <v>2.1198239999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -9801,7 +10080,7 @@
         <v>2.1047199999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -9827,7 +10106,7 @@
         <v>2.08968</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -9853,7 +10132,7 @@
         <v>2.0767199999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -9879,7 +10158,7 @@
         <v>2.0625279999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -9905,7 +10184,7 @@
         <v>2.0628960000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -9931,7 +10210,7 @@
         <v>2.0495999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -9957,7 +10236,7 @@
         <v>2.0366239999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -9983,7 +10262,7 @@
         <v>2.0228960000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -10009,7 +10288,7 @@
         <v>2.0096319999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -10035,7 +10314,7 @@
         <v>1.9955039999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -10061,7 +10340,7 @@
         <v>1.9823040000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -10087,7 +10366,7 @@
         <v>1.9699680000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -10113,7 +10392,7 @@
         <v>1.9567840000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -10153,9 +10432,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -10187,7 +10466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -10222,7 +10501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -10248,7 +10527,7 @@
         <v>1.159632</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -10274,7 +10553,7 @@
         <v>1.1777439999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -10300,7 +10579,7 @@
         <v>1.1917279999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -10326,7 +10605,7 @@
         <v>1.19648</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -10352,7 +10631,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -10378,7 +10657,7 @@
         <v>1.2001759999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -10404,7 +10683,7 @@
         <v>1.198928</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -10430,7 +10709,7 @@
         <v>1.198224</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -10456,7 +10735,7 @@
         <v>1.1942079999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -10482,7 +10761,7 @@
         <v>1.1932160000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -10508,7 +10787,7 @@
         <v>1.19208</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -10534,7 +10813,7 @@
         <v>1.1894400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -10560,7 +10839,7 @@
         <v>1.184256</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -10586,7 +10865,7 @@
         <v>1.183424</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -10612,7 +10891,7 @@
         <v>1.177584</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -10638,7 +10917,7 @@
         <v>1.176496</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -10664,7 +10943,7 @@
         <v>1.1720159999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -10690,7 +10969,7 @@
         <v>1.16696</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -10716,7 +10995,7 @@
         <v>1.166512</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -10742,7 +11021,7 @@
         <v>1.1623520000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -10768,7 +11047,7 @@
         <v>1.156928</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -10794,7 +11073,7 @@
         <v>1.152096</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -10820,7 +11099,7 @@
         <v>1.151856</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -10846,7 +11125,7 @@
         <v>1.1479200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -10872,7 +11151,7 @@
         <v>1.1433599999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -10898,7 +11177,7 @@
         <v>1.138368</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -10924,7 +11203,7 @@
         <v>1.1342400000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -10964,9 +11243,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -10998,7 +11277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -11033,7 +11312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -11059,7 +11338,7 @@
         <v>1.159632</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -11085,7 +11364,7 @@
         <v>1.1777439999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -11111,7 +11390,7 @@
         <v>1.1917279999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -11137,7 +11416,7 @@
         <v>1.19648</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -11163,7 +11442,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -11189,7 +11468,7 @@
         <v>1.2001759999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -11215,7 +11494,7 @@
         <v>1.198928</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -11241,7 +11520,7 @@
         <v>1.198224</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -11267,7 +11546,7 @@
         <v>1.1942079999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -11293,7 +11572,7 @@
         <v>1.1932160000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -11319,7 +11598,7 @@
         <v>1.19208</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -11345,7 +11624,7 @@
         <v>1.1894400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -11371,7 +11650,7 @@
         <v>1.184256</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -11397,7 +11676,7 @@
         <v>1.183424</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -11423,7 +11702,7 @@
         <v>1.177584</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -11449,7 +11728,7 @@
         <v>1.176496</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -11475,7 +11754,7 @@
         <v>1.1720159999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -11501,7 +11780,7 @@
         <v>1.16696</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -11527,7 +11806,7 @@
         <v>1.166512</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -11553,7 +11832,7 @@
         <v>1.1623520000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -11579,7 +11858,7 @@
         <v>1.156928</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -11605,7 +11884,7 @@
         <v>1.152096</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -11631,7 +11910,7 @@
         <v>1.151856</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -11657,7 +11936,7 @@
         <v>1.1479200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -11683,7 +11962,7 @@
         <v>1.1433599999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -11709,7 +11988,7 @@
         <v>1.138368</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -11735,7 +12014,7 @@
         <v>1.1342400000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -11775,9 +12054,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11809,7 +12088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -11844,7 +12123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -11870,7 +12149,7 @@
         <v>1.5853759999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -11896,7 +12175,7 @@
         <v>1.62304</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -11922,7 +12201,7 @@
         <v>1.644304</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -11948,7 +12227,7 @@
         <v>1.6506239999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -11974,7 +12253,7 @@
         <v>1.6603680000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -12000,7 +12279,7 @@
         <v>1.655168</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -12026,7 +12305,7 @@
         <v>1.6590400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -12052,7 +12331,7 @@
         <v>1.6544159999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -12078,7 +12357,7 @@
         <v>1.6483519999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -12104,7 +12383,7 @@
         <v>1.646512</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -12130,7 +12409,7 @@
         <v>1.642288</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -12156,7 +12435,7 @@
         <v>1.6391040000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -12182,7 +12461,7 @@
         <v>1.630112</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -12208,7 +12487,7 @@
         <v>1.62584</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -12234,7 +12513,7 @@
         <v>1.6177440000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -12260,7 +12539,7 @@
         <v>1.6159840000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -12286,7 +12565,7 @@
         <v>1.6062080000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -12312,7 +12591,7 @@
         <v>1.597424</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -12338,7 +12617,7 @@
         <v>1.5957440000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -12364,7 +12643,7 @@
         <v>1.5864320000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -12390,7 +12669,7 @@
         <v>1.5775680000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -12416,7 +12695,7 @@
         <v>1.569008</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -12442,7 +12721,7 @@
         <v>1.57016</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -12468,7 +12747,7 @@
         <v>1.561264</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -12494,7 +12773,7 @@
         <v>1.552608</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -12520,7 +12799,7 @@
         <v>1.5444479999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -12546,7 +12825,7 @@
         <v>1.5354239999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -12586,9 +12865,9 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>44</v>
       </c>
@@ -12607,9 +12886,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -12641,7 +12920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -12676,7 +12955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -12702,7 +12981,7 @@
         <v>0.96430400000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -12728,7 +13007,7 @@
         <v>0.98899199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -12754,7 +13033,7 @@
         <v>1.00264</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -12780,7 +13059,7 @@
         <v>1.0116480000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -12806,7 +13085,7 @@
         <v>1.0144799999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -12832,7 +13111,7 @@
         <v>1.0184</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -12858,7 +13137,7 @@
         <v>1.0210399999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -12884,7 +13163,7 @@
         <v>1.0209439999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -12910,7 +13189,7 @@
         <v>1.0218400000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -12936,7 +13215,7 @@
         <v>1.019328</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -12962,7 +13241,7 @@
         <v>1.0173760000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -12988,7 +13267,7 @@
         <v>1.0158240000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -13014,7 +13293,7 @@
         <v>1.0144960000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -13040,7 +13319,7 @@
         <v>1.0125440000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -13066,7 +13345,7 @@
         <v>1.011968</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -13092,7 +13371,7 @@
         <v>1.0111520000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -13118,7 +13397,7 @@
         <v>1.0072639999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13144,7 +13423,7 @@
         <v>1.0063839999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -13170,7 +13449,7 @@
         <v>1.001728</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -13196,7 +13475,7 @@
         <v>1.001968</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -13222,7 +13501,7 @@
         <v>0.99835200000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -13248,7 +13527,7 @@
         <v>0.99441599999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -13274,7 +13553,7 @@
         <v>0.99407999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -13300,7 +13579,7 @@
         <v>0.98998400000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -13326,7 +13605,7 @@
         <v>0.98638400000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -13352,7 +13631,7 @@
         <v>0.98272000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -13378,7 +13657,7 @@
         <v>0.98307199999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
